--- a/Web/wwwroot/Reports/CurrentOrders.xlsx
+++ b/Web/wwwroot/Reports/CurrentOrders.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>№ Апартаментов</t>
   </si>
@@ -67,6 +67,16 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>11-05-2023</t>
+  </si>
+  <si>
+    <t>27-05-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceTest3_x000D_
+Массаж</t>
   </si>
 </sst>
 </file>
@@ -395,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -465,6 +475,32 @@
         <v>6400</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0">
+        <v>61412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Web/wwwroot/Reports/CurrentOrders.xlsx
+++ b/Web/wwwroot/Reports/CurrentOrders.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>№ Апартаментов</t>
   </si>
@@ -51,32 +51,48 @@
     <t>Общая стоимость</t>
   </si>
   <si>
-    <t>Андронов ИльяАлексеевич</t>
-  </si>
-  <si>
-    <t>Room Only</t>
-  </si>
-  <si>
-    <t>08-05-2023</t>
-  </si>
-  <si>
-    <t>10-05-2023</t>
-  </si>
-  <si>
-    <t>ServiceTest3</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>11-05-2023</t>
-  </si>
-  <si>
-    <t>27-05-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServiceTest3_x000D_
-Массаж</t>
+    <t>ПривезенцевДенисГеннадьвеич</t>
+  </si>
+  <si>
+    <t>All Inclusive</t>
+  </si>
+  <si>
+    <t>30-05-2023</t>
+  </si>
+  <si>
+    <t>07-06-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользование тренажерным залом_x000D_
+Заказ ежедневного блюда из ресторана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уборка номера_x000D_
+Доставка газет_x000D_
+Пользование бассейном_x000D_
+Пользование бизнес-центром_x000D_
+Пользование парковкой_x000D_
+Доставка вещей из химчистки/прачечной</t>
+  </si>
+  <si>
+    <t>Астафьев АлександрВладимирович</t>
+  </si>
+  <si>
+    <t>08-06-2023</t>
+  </si>
+  <si>
+    <t>15-06-2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользование тренажерным залом_x000D_
+Заказ ежедневного блюда из ресторана_x000D_
+Пользование детской игровой комнатой</t>
+  </si>
+  <si>
+    <t>АндроновИльяАлексеевич</t>
+  </si>
+  <si>
+    <t>22-06-2023</t>
   </si>
 </sst>
 </file>
@@ -405,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
@@ -451,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>8</v>
@@ -472,33 +488,59 @@
         <v>13</v>
       </c>
       <c r="H2" s="0">
-        <v>6400</v>
+        <v>67000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="0">
-        <v>61412</v>
+        <v>59350</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="0">
+        <v>58850</v>
       </c>
     </row>
   </sheetData>
